--- a/Code/Results/Cases/Case_0_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009989790048046</v>
+        <v>1.040094350233371</v>
       </c>
       <c r="D2">
-        <v>1.02540175338994</v>
+        <v>1.050244674905319</v>
       </c>
       <c r="E2">
-        <v>1.024350593195337</v>
+        <v>1.048547495786166</v>
       </c>
       <c r="F2">
-        <v>1.033609048070942</v>
+        <v>1.0594430891009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047709652523383</v>
+        <v>1.036478988838291</v>
       </c>
       <c r="J2">
-        <v>1.031875759120161</v>
+        <v>1.045182815016401</v>
       </c>
       <c r="K2">
-        <v>1.036518190657649</v>
+        <v>1.05299948975008</v>
       </c>
       <c r="L2">
-        <v>1.035480797207052</v>
+        <v>1.051307035798264</v>
       </c>
       <c r="M2">
-        <v>1.044619200546944</v>
+        <v>1.06217257962361</v>
       </c>
       <c r="N2">
-        <v>1.014391219622797</v>
+        <v>1.018962365659191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014112667678504</v>
+        <v>1.040982097413727</v>
       </c>
       <c r="D3">
-        <v>1.028963841833513</v>
+        <v>1.051063406903668</v>
       </c>
       <c r="E3">
-        <v>1.027762045563439</v>
+        <v>1.049333520566056</v>
       </c>
       <c r="F3">
-        <v>1.037333900820988</v>
+        <v>1.060303557600974</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048492037618082</v>
+        <v>1.036584975585148</v>
       </c>
       <c r="J3">
-        <v>1.034225863357182</v>
+        <v>1.045716346847191</v>
       </c>
       <c r="K3">
-        <v>1.039239066785621</v>
+        <v>1.053630613117952</v>
       </c>
       <c r="L3">
-        <v>1.038051613430359</v>
+        <v>1.051905195295929</v>
       </c>
       <c r="M3">
-        <v>1.047510373171878</v>
+        <v>1.062847161545223</v>
       </c>
       <c r="N3">
-        <v>1.01518590236503</v>
+        <v>1.019141258202088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016731094221524</v>
+        <v>1.041557170494382</v>
       </c>
       <c r="D4">
-        <v>1.031231282669884</v>
+        <v>1.051594096964151</v>
       </c>
       <c r="E4">
-        <v>1.029934350414328</v>
+        <v>1.049843068205098</v>
       </c>
       <c r="F4">
-        <v>1.039705236166721</v>
+        <v>1.06086133609219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04897807156622</v>
+        <v>1.036652280463742</v>
       </c>
       <c r="J4">
-        <v>1.035716288328673</v>
+        <v>1.046061567461547</v>
       </c>
       <c r="K4">
-        <v>1.040966837596692</v>
+        <v>1.054039255072296</v>
       </c>
       <c r="L4">
-        <v>1.039684434631932</v>
+        <v>1.052292522002801</v>
       </c>
       <c r="M4">
-        <v>1.04934695495993</v>
+        <v>1.063284013216996</v>
       </c>
       <c r="N4">
-        <v>1.015689680388957</v>
+        <v>1.019256959698746</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017820443162098</v>
+        <v>1.041799083238834</v>
       </c>
       <c r="D5">
-        <v>1.032175816101455</v>
+        <v>1.051817416503504</v>
       </c>
       <c r="E5">
-        <v>1.03083942995897</v>
+        <v>1.050057504598612</v>
       </c>
       <c r="F5">
-        <v>1.040693117529421</v>
+        <v>1.061096063196148</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049177634120589</v>
+        <v>1.036680269420405</v>
       </c>
       <c r="J5">
-        <v>1.036335813407447</v>
+        <v>1.046206694505678</v>
       </c>
       <c r="K5">
-        <v>1.04168555210081</v>
+        <v>1.054211109635432</v>
       </c>
       <c r="L5">
-        <v>1.040363732368062</v>
+        <v>1.052455419183975</v>
       </c>
       <c r="M5">
-        <v>1.050111092788313</v>
+        <v>1.063467748378264</v>
       </c>
       <c r="N5">
-        <v>1.0158990336222</v>
+        <v>1.019305587218885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018002689594695</v>
+        <v>1.041839710324009</v>
       </c>
       <c r="D6">
-        <v>1.032333905004212</v>
+        <v>1.051854925535579</v>
       </c>
       <c r="E6">
-        <v>1.030990925617122</v>
+        <v>1.050093522412708</v>
       </c>
       <c r="F6">
-        <v>1.040858465763823</v>
+        <v>1.061135488755091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049210864177337</v>
+        <v>1.036684950926408</v>
       </c>
       <c r="J6">
-        <v>1.036439426437965</v>
+        <v>1.046231061720947</v>
       </c>
       <c r="K6">
-        <v>1.041805785513388</v>
+        <v>1.05423996833584</v>
       </c>
       <c r="L6">
-        <v>1.040477376446144</v>
+        <v>1.052482774110262</v>
       </c>
       <c r="M6">
-        <v>1.050238934451386</v>
+        <v>1.063498603125451</v>
       </c>
       <c r="N6">
-        <v>1.015934043941424</v>
+        <v>1.019313751194517</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016745694609196</v>
+        <v>1.041560402348853</v>
       </c>
       <c r="D7">
-        <v>1.031243937399828</v>
+        <v>1.051597080118625</v>
       </c>
       <c r="E7">
-        <v>1.029946475855723</v>
+        <v>1.049845932642368</v>
       </c>
       <c r="F7">
-        <v>1.039718471392517</v>
+        <v>1.060864471598223</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048980756761131</v>
+        <v>1.036652655656757</v>
       </c>
       <c r="J7">
-        <v>1.035724593903921</v>
+        <v>1.046063506672355</v>
       </c>
       <c r="K7">
-        <v>1.040976470835886</v>
+        <v>1.054041551161618</v>
       </c>
       <c r="L7">
-        <v>1.039693539236227</v>
+        <v>1.052294698389134</v>
       </c>
       <c r="M7">
-        <v>1.049357196395215</v>
+        <v>1.063286467972153</v>
       </c>
       <c r="N7">
-        <v>1.015692487263401</v>
+        <v>1.019257609515257</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011393586747745</v>
+        <v>1.040394234859222</v>
       </c>
       <c r="D8">
-        <v>1.026613503034138</v>
+        <v>1.050521178540368</v>
       </c>
       <c r="E8">
-        <v>1.025510940038281</v>
+        <v>1.048812941458176</v>
       </c>
       <c r="F8">
-        <v>1.034876106953998</v>
+        <v>1.059733680734506</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047978296513941</v>
+        <v>1.036515071308028</v>
       </c>
       <c r="J8">
-        <v>1.032676369683974</v>
+        <v>1.045363125935495</v>
       </c>
       <c r="K8">
-        <v>1.037444651927828</v>
+        <v>1.05321272552649</v>
       </c>
       <c r="L8">
-        <v>1.036356091105383</v>
+        <v>1.051509128295934</v>
       </c>
       <c r="M8">
-        <v>1.045603506718637</v>
+        <v>1.062400483904667</v>
       </c>
       <c r="N8">
-        <v>1.014661985855162</v>
+        <v>1.019022834114624</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001566706760656</v>
+        <v>1.038344276922276</v>
       </c>
       <c r="D9">
-        <v>1.01815434194306</v>
+        <v>1.048632394660416</v>
       </c>
       <c r="E9">
-        <v>1.017413949408133</v>
+        <v>1.046999933676211</v>
       </c>
       <c r="F9">
-        <v>1.026032032317649</v>
+        <v>1.057748807086954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046053405806969</v>
+        <v>1.036262887922536</v>
       </c>
       <c r="J9">
-        <v>1.027064261619253</v>
+        <v>1.044128943980085</v>
       </c>
       <c r="K9">
-        <v>1.030959587606521</v>
+        <v>1.051754307216388</v>
       </c>
       <c r="L9">
-        <v>1.030230677035458</v>
+        <v>1.050127040905666</v>
       </c>
       <c r="M9">
-        <v>1.03871641918991</v>
+        <v>1.060842032355279</v>
       </c>
       <c r="N9">
-        <v>1.012763214020594</v>
+        <v>1.018608737747693</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9947230559693493</v>
+        <v>1.036981074731623</v>
       </c>
       <c r="D10">
-        <v>1.0122945662184</v>
+        <v>1.047378080076904</v>
       </c>
       <c r="E10">
-        <v>1.011809469084466</v>
+        <v>1.045796244572561</v>
       </c>
       <c r="F10">
-        <v>1.01990712998835</v>
+        <v>1.056430862010294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044658359441936</v>
+        <v>1.036088252789818</v>
       </c>
       <c r="J10">
-        <v>1.023147615090138</v>
+        <v>1.043306217064122</v>
       </c>
       <c r="K10">
-        <v>1.026445330800246</v>
+        <v>1.050783512674205</v>
       </c>
       <c r="L10">
-        <v>1.025968724095233</v>
+        <v>1.049207203609906</v>
       </c>
       <c r="M10">
-        <v>1.033926022704025</v>
+        <v>1.059805017274768</v>
       </c>
       <c r="N10">
-        <v>1.011437237113709</v>
+        <v>1.01833243814576</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9916840294935457</v>
+        <v>1.036391626910109</v>
       </c>
       <c r="D11">
-        <v>1.009700475315893</v>
+        <v>1.046836126615912</v>
       </c>
       <c r="E11">
-        <v>1.009329509579675</v>
+        <v>1.045276237907695</v>
       </c>
       <c r="F11">
-        <v>1.01719602475473</v>
+        <v>1.055861458592385</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044026508713539</v>
+        <v>1.036011096895882</v>
       </c>
       <c r="J11">
-        <v>1.021406901939781</v>
+        <v>1.042949997597145</v>
       </c>
       <c r="K11">
-        <v>1.024441744524212</v>
+        <v>1.050363518281281</v>
       </c>
       <c r="L11">
-        <v>1.024077603898489</v>
+        <v>1.04880929015264</v>
       </c>
       <c r="M11">
-        <v>1.031800775523675</v>
+        <v>1.059356461052096</v>
       </c>
       <c r="N11">
-        <v>1.010847761754209</v>
+        <v>1.018212747493055</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9905432553072303</v>
+        <v>1.036172805587781</v>
       </c>
       <c r="D12">
-        <v>1.008727978184033</v>
+        <v>1.046634999012329</v>
       </c>
       <c r="E12">
-        <v>1.008399972333121</v>
+        <v>1.04508326615618</v>
       </c>
       <c r="F12">
-        <v>1.016179713571898</v>
+        <v>1.055650150321235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043787520807015</v>
+        <v>1.035982207344639</v>
       </c>
       <c r="J12">
-        <v>1.020753304873779</v>
+        <v>1.042817687111182</v>
       </c>
       <c r="K12">
-        <v>1.023689852693431</v>
+        <v>1.050207570127072</v>
       </c>
       <c r="L12">
-        <v>1.023367992361205</v>
+        <v>1.048661546206066</v>
       </c>
       <c r="M12">
-        <v>1.031003364704456</v>
+        <v>1.059189920712636</v>
       </c>
       <c r="N12">
-        <v>1.010626407172819</v>
+        <v>1.018168281854225</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9907885053704583</v>
+        <v>1.036219737785604</v>
       </c>
       <c r="D13">
-        <v>1.008936993311177</v>
+        <v>1.046678133480233</v>
       </c>
       <c r="E13">
-        <v>1.008599746326521</v>
+        <v>1.045124650992855</v>
       </c>
       <c r="F13">
-        <v>1.016398143074976</v>
+        <v>1.055695467875709</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043838980613405</v>
+        <v>1.035988414668501</v>
       </c>
       <c r="J13">
-        <v>1.0208938261425</v>
+        <v>1.042846067900006</v>
       </c>
       <c r="K13">
-        <v>1.023851488616671</v>
+        <v>1.050241018956851</v>
       </c>
       <c r="L13">
-        <v>1.023520535778347</v>
+        <v>1.048693235099333</v>
       </c>
       <c r="M13">
-        <v>1.031174779723246</v>
+        <v>1.059225640833346</v>
       </c>
       <c r="N13">
-        <v>1.010673998561075</v>
+        <v>1.018177820202922</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9915899798534462</v>
+        <v>1.036373536495551</v>
       </c>
       <c r="D14">
-        <v>1.009620273136724</v>
+        <v>1.046819497702996</v>
       </c>
       <c r="E14">
-        <v>1.009252846758143</v>
+        <v>1.04526028308192</v>
       </c>
       <c r="F14">
-        <v>1.017112208129779</v>
+        <v>1.055843987826327</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04400684211671</v>
+        <v>1.036008713573469</v>
       </c>
       <c r="J14">
-        <v>1.021353020326915</v>
+        <v>1.042939060655943</v>
       </c>
       <c r="K14">
-        <v>1.024379751347297</v>
+        <v>1.050350626397872</v>
       </c>
       <c r="L14">
-        <v>1.024019095181546</v>
+        <v>1.048797076383671</v>
       </c>
       <c r="M14">
-        <v>1.03173502652578</v>
+        <v>1.059342693268949</v>
       </c>
       <c r="N14">
-        <v>1.010829513991376</v>
+        <v>1.018209072093628</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.992082194198987</v>
+        <v>1.03646831367684</v>
       </c>
       <c r="D15">
-        <v>1.010040067657778</v>
+        <v>1.046906620512647</v>
       </c>
       <c r="E15">
-        <v>1.009654122665711</v>
+        <v>1.045343874642484</v>
       </c>
       <c r="F15">
-        <v>1.017550923573044</v>
+        <v>1.055935521568047</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044109695022672</v>
+        <v>1.036021189884549</v>
       </c>
       <c r="J15">
-        <v>1.021635005970447</v>
+        <v>1.042996357300326</v>
       </c>
       <c r="K15">
-        <v>1.024704204915707</v>
+        <v>1.050418166685693</v>
       </c>
       <c r="L15">
-        <v>1.024325315201866</v>
+        <v>1.048861064263768</v>
       </c>
       <c r="M15">
-        <v>1.032079142529041</v>
+        <v>1.059414822912928</v>
       </c>
       <c r="N15">
-        <v>1.010925011568784</v>
+        <v>1.018228326474947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9949231034321512</v>
+        <v>1.037020212008303</v>
       </c>
       <c r="D16">
-        <v>1.012465497198001</v>
+        <v>1.047414072611952</v>
       </c>
       <c r="E16">
-        <v>1.011972903418359</v>
+        <v>1.045830781109681</v>
       </c>
       <c r="F16">
-        <v>1.020085778749896</v>
+        <v>1.056468678473758</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044699698141817</v>
+        <v>1.036093341026213</v>
       </c>
       <c r="J16">
-        <v>1.023262172587912</v>
+        <v>1.043329858848325</v>
       </c>
       <c r="K16">
-        <v>1.026577244877908</v>
+        <v>1.050811394156461</v>
       </c>
       <c r="L16">
-        <v>1.026093243799232</v>
+        <v>1.049233619987896</v>
       </c>
       <c r="M16">
-        <v>1.034065965737468</v>
+        <v>1.059834796682663</v>
       </c>
       <c r="N16">
-        <v>1.011476027865285</v>
+        <v>1.018340380584194</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9966844745174372</v>
+        <v>1.037366625904559</v>
       </c>
       <c r="D17">
-        <v>1.013971426174747</v>
+        <v>1.047732699237044</v>
       </c>
       <c r="E17">
-        <v>1.013412913601222</v>
+        <v>1.046136526853342</v>
       </c>
       <c r="F17">
-        <v>1.021659743211697</v>
+        <v>1.056803456530314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045062272748695</v>
+        <v>1.036138188267414</v>
       </c>
       <c r="J17">
-        <v>1.024270662429427</v>
+        <v>1.043539063608257</v>
       </c>
       <c r="K17">
-        <v>1.027738841437701</v>
+        <v>1.051058154398705</v>
       </c>
       <c r="L17">
-        <v>1.027189783186043</v>
+        <v>1.049467417663988</v>
       </c>
       <c r="M17">
-        <v>1.035298365717348</v>
+        <v>1.060098364260496</v>
       </c>
       <c r="N17">
-        <v>1.011817498807002</v>
+        <v>1.018410655821418</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9977045910186366</v>
+        <v>1.037568763032641</v>
       </c>
       <c r="D18">
-        <v>1.014844360390522</v>
+        <v>1.047918661815987</v>
       </c>
       <c r="E18">
-        <v>1.014247742624129</v>
+        <v>1.04631497870601</v>
       </c>
       <c r="F18">
-        <v>1.022572149089967</v>
+        <v>1.056998849847512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045271083587267</v>
+        <v>1.036164198494964</v>
       </c>
       <c r="J18">
-        <v>1.024854597495924</v>
+        <v>1.043661091697795</v>
       </c>
       <c r="K18">
-        <v>1.028411687583982</v>
+        <v>1.051202120693177</v>
       </c>
       <c r="L18">
-        <v>1.027824991399809</v>
+        <v>1.049603824671221</v>
       </c>
       <c r="M18">
-        <v>1.036012309613833</v>
+        <v>1.060252144798262</v>
       </c>
       <c r="N18">
-        <v>1.012015201770603</v>
+        <v>1.018451641215825</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9980512095755465</v>
+        <v>1.037637700053655</v>
       </c>
       <c r="D19">
-        <v>1.015141096188152</v>
+        <v>1.047982089371515</v>
       </c>
       <c r="E19">
-        <v>1.014531543098058</v>
+        <v>1.046375845718065</v>
       </c>
       <c r="F19">
-        <v>1.022882308206669</v>
+        <v>1.057065494714901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045341832734684</v>
+        <v>1.036173042119041</v>
       </c>
       <c r="J19">
-        <v>1.025052983464335</v>
+        <v>1.04370270050696</v>
       </c>
       <c r="K19">
-        <v>1.028640324235746</v>
+        <v>1.051251215408417</v>
       </c>
       <c r="L19">
-        <v>1.028040846221258</v>
+        <v>1.049650342130864</v>
       </c>
       <c r="M19">
-        <v>1.036254925928201</v>
+        <v>1.060304587746911</v>
       </c>
       <c r="N19">
-        <v>1.012082366634113</v>
+        <v>1.01846561531994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.996496251193063</v>
+        <v>1.037329450710885</v>
       </c>
       <c r="D20">
-        <v>1.01381042069782</v>
+        <v>1.047698501908325</v>
       </c>
       <c r="E20">
-        <v>1.013258944799333</v>
+        <v>1.04610371126552</v>
       </c>
       <c r="F20">
-        <v>1.021491460250626</v>
+        <v>1.056767525283225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045023649199046</v>
+        <v>1.036133391929154</v>
       </c>
       <c r="J20">
-        <v>1.024162907830914</v>
+        <v>1.04351661765042</v>
       </c>
       <c r="K20">
-        <v>1.02761470088641</v>
+        <v>1.051031675706453</v>
       </c>
       <c r="L20">
-        <v>1.027072590556152</v>
+        <v>1.049442329571628</v>
       </c>
       <c r="M20">
-        <v>1.035166649490465</v>
+        <v>1.060070081181412</v>
       </c>
       <c r="N20">
-        <v>1.011781015059536</v>
+        <v>1.018403116463398</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9913543001119853</v>
+        <v>1.036328243122932</v>
       </c>
       <c r="D21">
-        <v>1.009419314335539</v>
+        <v>1.046777864533449</v>
       </c>
       <c r="E21">
-        <v>1.009060759170764</v>
+        <v>1.045220337777147</v>
       </c>
       <c r="F21">
-        <v>1.016902193643286</v>
+        <v>1.055800247045671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043957530490502</v>
+        <v>1.036002742407627</v>
       </c>
       <c r="J21">
-        <v>1.021217995261575</v>
+        <v>1.042911676451011</v>
       </c>
       <c r="K21">
-        <v>1.024224405608725</v>
+        <v>1.050318348167919</v>
       </c>
       <c r="L21">
-        <v>1.023872482197138</v>
+        <v>1.048766496078307</v>
       </c>
       <c r="M21">
-        <v>1.031570271470482</v>
+        <v>1.05930822220488</v>
       </c>
       <c r="N21">
-        <v>1.010783785545476</v>
+        <v>1.018199869385713</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9880519335545468</v>
+        <v>1.03569947300717</v>
       </c>
       <c r="D22">
-        <v>1.006606529451938</v>
+        <v>1.04620005426831</v>
       </c>
       <c r="E22">
-        <v>1.006372563193072</v>
+        <v>1.044665978975241</v>
       </c>
       <c r="F22">
-        <v>1.013962784937695</v>
+        <v>1.05519320135266</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043262333672397</v>
+        <v>1.0359192650495</v>
       </c>
       <c r="J22">
-        <v>1.019325646637019</v>
+        <v>1.042531357114179</v>
       </c>
       <c r="K22">
-        <v>1.022048236049383</v>
+        <v>1.049870178240517</v>
       </c>
       <c r="L22">
-        <v>1.021818826661208</v>
+        <v>1.048341913800557</v>
       </c>
       <c r="M22">
-        <v>1.029262619892286</v>
+        <v>1.058829636757351</v>
       </c>
       <c r="N22">
-        <v>1.010142866675759</v>
+        <v>1.018072038452795</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9898093618264735</v>
+        <v>1.036032726359479</v>
       </c>
       <c r="D23">
-        <v>1.00810270393141</v>
+        <v>1.046506264092709</v>
       </c>
       <c r="E23">
-        <v>1.007802369030269</v>
+        <v>1.044959754638369</v>
       </c>
       <c r="F23">
-        <v>1.015526283785764</v>
+        <v>1.055514900918938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043633270106337</v>
+        <v>1.035963644108477</v>
       </c>
       <c r="J23">
-        <v>1.020332782383946</v>
+        <v>1.042732968208153</v>
       </c>
       <c r="K23">
-        <v>1.023206202343754</v>
+        <v>1.05010773007374</v>
       </c>
       <c r="L23">
-        <v>1.022911559916624</v>
+        <v>1.048566960098686</v>
       </c>
       <c r="M23">
-        <v>1.030490473383379</v>
+        <v>1.059083303096414</v>
       </c>
       <c r="N23">
-        <v>1.010483982961004</v>
+        <v>1.018139807816948</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9965813236099227</v>
+        <v>1.037346248334424</v>
       </c>
       <c r="D24">
-        <v>1.013883188951398</v>
+        <v>1.047713953860052</v>
       </c>
       <c r="E24">
-        <v>1.013328532420919</v>
+        <v>1.046118538860369</v>
       </c>
       <c r="F24">
-        <v>1.021567517540828</v>
+        <v>1.056783760687504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045041109769951</v>
+        <v>1.036135559646589</v>
       </c>
       <c r="J24">
-        <v>1.024211610763119</v>
+        <v>1.043526760005038</v>
       </c>
       <c r="K24">
-        <v>1.02767080913882</v>
+        <v>1.051043640179069</v>
       </c>
       <c r="L24">
-        <v>1.027125558389219</v>
+        <v>1.049453665687191</v>
       </c>
       <c r="M24">
-        <v>1.035226181483745</v>
+        <v>1.060082860945385</v>
       </c>
       <c r="N24">
-        <v>1.011797505034365</v>
+        <v>1.01840652319015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00415670707903</v>
+        <v>1.038873641050199</v>
       </c>
       <c r="D25">
-        <v>1.020378631743569</v>
+        <v>1.049119839155149</v>
       </c>
       <c r="E25">
-        <v>1.019542265014476</v>
+        <v>1.047467769095145</v>
       </c>
       <c r="F25">
-        <v>1.028357271010993</v>
+        <v>1.058261017730661</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046570333723801</v>
+        <v>1.036329234040062</v>
       </c>
       <c r="J25">
-        <v>1.028544986670906</v>
+        <v>1.04444800437293</v>
       </c>
       <c r="K25">
-        <v>1.032668622920582</v>
+        <v>1.052131088051812</v>
       </c>
       <c r="L25">
-        <v>1.031844602064773</v>
+        <v>1.050484075786354</v>
       </c>
       <c r="M25">
-        <v>1.040530766562636</v>
+        <v>1.061244592098414</v>
       </c>
       <c r="N25">
-        <v>1.013264352780327</v>
+        <v>1.018715835137052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040094350233371</v>
+        <v>1.009989790048045</v>
       </c>
       <c r="D2">
-        <v>1.050244674905319</v>
+        <v>1.025401753389939</v>
       </c>
       <c r="E2">
-        <v>1.048547495786166</v>
+        <v>1.024350593195337</v>
       </c>
       <c r="F2">
-        <v>1.0594430891009</v>
+        <v>1.033609048070941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036478988838291</v>
+        <v>1.047709652523383</v>
       </c>
       <c r="J2">
-        <v>1.045182815016401</v>
+        <v>1.03187575912016</v>
       </c>
       <c r="K2">
-        <v>1.05299948975008</v>
+        <v>1.036518190657648</v>
       </c>
       <c r="L2">
-        <v>1.051307035798264</v>
+        <v>1.035480797207051</v>
       </c>
       <c r="M2">
-        <v>1.06217257962361</v>
+        <v>1.044619200546943</v>
       </c>
       <c r="N2">
-        <v>1.018962365659191</v>
+        <v>1.014391219622797</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040982097413727</v>
+        <v>1.014112667678505</v>
       </c>
       <c r="D3">
-        <v>1.051063406903668</v>
+        <v>1.028963841833513</v>
       </c>
       <c r="E3">
-        <v>1.049333520566056</v>
+        <v>1.027762045563439</v>
       </c>
       <c r="F3">
-        <v>1.060303557600974</v>
+        <v>1.037333900820989</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036584975585148</v>
+        <v>1.048492037618082</v>
       </c>
       <c r="J3">
-        <v>1.045716346847191</v>
+        <v>1.034225863357183</v>
       </c>
       <c r="K3">
-        <v>1.053630613117952</v>
+        <v>1.039239066785622</v>
       </c>
       <c r="L3">
-        <v>1.051905195295929</v>
+        <v>1.038051613430359</v>
       </c>
       <c r="M3">
-        <v>1.062847161545223</v>
+        <v>1.047510373171878</v>
       </c>
       <c r="N3">
-        <v>1.019141258202088</v>
+        <v>1.01518590236503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041557170494382</v>
+        <v>1.016731094221525</v>
       </c>
       <c r="D4">
-        <v>1.051594096964151</v>
+        <v>1.031231282669884</v>
       </c>
       <c r="E4">
-        <v>1.049843068205098</v>
+        <v>1.029934350414328</v>
       </c>
       <c r="F4">
-        <v>1.06086133609219</v>
+        <v>1.039705236166721</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036652280463742</v>
+        <v>1.048978071566221</v>
       </c>
       <c r="J4">
-        <v>1.046061567461547</v>
+        <v>1.035716288328673</v>
       </c>
       <c r="K4">
-        <v>1.054039255072296</v>
+        <v>1.040966837596692</v>
       </c>
       <c r="L4">
-        <v>1.052292522002801</v>
+        <v>1.039684434631932</v>
       </c>
       <c r="M4">
-        <v>1.063284013216996</v>
+        <v>1.049346954959931</v>
       </c>
       <c r="N4">
-        <v>1.019256959698746</v>
+        <v>1.015689680388957</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041799083238834</v>
+        <v>1.017820443162098</v>
       </c>
       <c r="D5">
-        <v>1.051817416503504</v>
+        <v>1.032175816101455</v>
       </c>
       <c r="E5">
-        <v>1.050057504598612</v>
+        <v>1.03083942995897</v>
       </c>
       <c r="F5">
-        <v>1.061096063196148</v>
+        <v>1.040693117529421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036680269420405</v>
+        <v>1.049177634120589</v>
       </c>
       <c r="J5">
-        <v>1.046206694505678</v>
+        <v>1.036335813407447</v>
       </c>
       <c r="K5">
-        <v>1.054211109635432</v>
+        <v>1.041685552100811</v>
       </c>
       <c r="L5">
-        <v>1.052455419183975</v>
+        <v>1.040363732368062</v>
       </c>
       <c r="M5">
-        <v>1.063467748378264</v>
+        <v>1.050111092788313</v>
       </c>
       <c r="N5">
-        <v>1.019305587218885</v>
+        <v>1.0158990336222</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041839710324009</v>
+        <v>1.018002689594696</v>
       </c>
       <c r="D6">
-        <v>1.051854925535579</v>
+        <v>1.032333905004213</v>
       </c>
       <c r="E6">
-        <v>1.050093522412708</v>
+        <v>1.030990925617122</v>
       </c>
       <c r="F6">
-        <v>1.061135488755091</v>
+        <v>1.040858465763823</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036684950926408</v>
+        <v>1.049210864177337</v>
       </c>
       <c r="J6">
-        <v>1.046231061720947</v>
+        <v>1.036439426437965</v>
       </c>
       <c r="K6">
-        <v>1.05423996833584</v>
+        <v>1.041805785513388</v>
       </c>
       <c r="L6">
-        <v>1.052482774110262</v>
+        <v>1.040477376446144</v>
       </c>
       <c r="M6">
-        <v>1.063498603125451</v>
+        <v>1.050238934451387</v>
       </c>
       <c r="N6">
-        <v>1.019313751194517</v>
+        <v>1.015934043941424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041560402348853</v>
+        <v>1.016745694609196</v>
       </c>
       <c r="D7">
-        <v>1.051597080118625</v>
+        <v>1.031243937399827</v>
       </c>
       <c r="E7">
-        <v>1.049845932642368</v>
+        <v>1.029946475855723</v>
       </c>
       <c r="F7">
-        <v>1.060864471598223</v>
+        <v>1.039718471392516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036652655656757</v>
+        <v>1.04898075676113</v>
       </c>
       <c r="J7">
-        <v>1.046063506672355</v>
+        <v>1.03572459390392</v>
       </c>
       <c r="K7">
-        <v>1.054041551161618</v>
+        <v>1.040976470835886</v>
       </c>
       <c r="L7">
-        <v>1.052294698389134</v>
+        <v>1.039693539236227</v>
       </c>
       <c r="M7">
-        <v>1.063286467972153</v>
+        <v>1.049357196395215</v>
       </c>
       <c r="N7">
-        <v>1.019257609515257</v>
+        <v>1.015692487263401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040394234859222</v>
+        <v>1.011393586747745</v>
       </c>
       <c r="D8">
-        <v>1.050521178540368</v>
+        <v>1.026613503034137</v>
       </c>
       <c r="E8">
-        <v>1.048812941458176</v>
+        <v>1.025510940038281</v>
       </c>
       <c r="F8">
-        <v>1.059733680734506</v>
+        <v>1.034876106953998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036515071308028</v>
+        <v>1.047978296513941</v>
       </c>
       <c r="J8">
-        <v>1.045363125935495</v>
+        <v>1.032676369683974</v>
       </c>
       <c r="K8">
-        <v>1.05321272552649</v>
+        <v>1.037444651927828</v>
       </c>
       <c r="L8">
-        <v>1.051509128295934</v>
+        <v>1.036356091105383</v>
       </c>
       <c r="M8">
-        <v>1.062400483904667</v>
+        <v>1.045603506718637</v>
       </c>
       <c r="N8">
-        <v>1.019022834114624</v>
+        <v>1.014661985855162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038344276922276</v>
+        <v>1.001566706760656</v>
       </c>
       <c r="D9">
-        <v>1.048632394660416</v>
+        <v>1.018154341943061</v>
       </c>
       <c r="E9">
-        <v>1.046999933676211</v>
+        <v>1.017413949408134</v>
       </c>
       <c r="F9">
-        <v>1.057748807086954</v>
+        <v>1.026032032317649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036262887922536</v>
+        <v>1.04605340580697</v>
       </c>
       <c r="J9">
-        <v>1.044128943980085</v>
+        <v>1.027064261619253</v>
       </c>
       <c r="K9">
-        <v>1.051754307216388</v>
+        <v>1.030959587606521</v>
       </c>
       <c r="L9">
-        <v>1.050127040905666</v>
+        <v>1.030230677035458</v>
       </c>
       <c r="M9">
-        <v>1.060842032355279</v>
+        <v>1.03871641918991</v>
       </c>
       <c r="N9">
-        <v>1.018608737747693</v>
+        <v>1.012763214020594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036981074731623</v>
+        <v>0.99472305596935</v>
       </c>
       <c r="D10">
-        <v>1.047378080076904</v>
+        <v>1.012294566218401</v>
       </c>
       <c r="E10">
-        <v>1.045796244572561</v>
+        <v>1.011809469084467</v>
       </c>
       <c r="F10">
-        <v>1.056430862010294</v>
+        <v>1.019907129988351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036088252789818</v>
+        <v>1.044658359441936</v>
       </c>
       <c r="J10">
-        <v>1.043306217064122</v>
+        <v>1.023147615090139</v>
       </c>
       <c r="K10">
-        <v>1.050783512674205</v>
+        <v>1.026445330800247</v>
       </c>
       <c r="L10">
-        <v>1.049207203609906</v>
+        <v>1.025968724095234</v>
       </c>
       <c r="M10">
-        <v>1.059805017274768</v>
+        <v>1.033926022704026</v>
       </c>
       <c r="N10">
-        <v>1.01833243814576</v>
+        <v>1.011437237113709</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036391626910109</v>
+        <v>0.9916840294935452</v>
       </c>
       <c r="D11">
-        <v>1.046836126615912</v>
+        <v>1.009700475315892</v>
       </c>
       <c r="E11">
-        <v>1.045276237907695</v>
+        <v>1.009329509579674</v>
       </c>
       <c r="F11">
-        <v>1.055861458592385</v>
+        <v>1.017196024754729</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036011096895882</v>
+        <v>1.044026508713539</v>
       </c>
       <c r="J11">
-        <v>1.042949997597145</v>
+        <v>1.02140690193978</v>
       </c>
       <c r="K11">
-        <v>1.050363518281281</v>
+        <v>1.024441744524212</v>
       </c>
       <c r="L11">
-        <v>1.04880929015264</v>
+        <v>1.024077603898488</v>
       </c>
       <c r="M11">
-        <v>1.059356461052096</v>
+        <v>1.031800775523674</v>
       </c>
       <c r="N11">
-        <v>1.018212747493055</v>
+        <v>1.010847761754209</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036172805587781</v>
+        <v>0.9905432553072306</v>
       </c>
       <c r="D12">
-        <v>1.046634999012329</v>
+        <v>1.008727978184033</v>
       </c>
       <c r="E12">
-        <v>1.04508326615618</v>
+        <v>1.008399972333121</v>
       </c>
       <c r="F12">
-        <v>1.055650150321235</v>
+        <v>1.016179713571898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035982207344639</v>
+        <v>1.043787520807015</v>
       </c>
       <c r="J12">
-        <v>1.042817687111182</v>
+        <v>1.020753304873779</v>
       </c>
       <c r="K12">
-        <v>1.050207570127072</v>
+        <v>1.023689852693431</v>
       </c>
       <c r="L12">
-        <v>1.048661546206066</v>
+        <v>1.023367992361206</v>
       </c>
       <c r="M12">
-        <v>1.059189920712636</v>
+        <v>1.031003364704456</v>
       </c>
       <c r="N12">
-        <v>1.018168281854225</v>
+        <v>1.010626407172819</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036219737785604</v>
+        <v>0.9907885053704583</v>
       </c>
       <c r="D13">
-        <v>1.046678133480233</v>
+        <v>1.008936993311177</v>
       </c>
       <c r="E13">
-        <v>1.045124650992855</v>
+        <v>1.008599746326521</v>
       </c>
       <c r="F13">
-        <v>1.055695467875709</v>
+        <v>1.016398143074976</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035988414668501</v>
+        <v>1.043838980613405</v>
       </c>
       <c r="J13">
-        <v>1.042846067900006</v>
+        <v>1.0208938261425</v>
       </c>
       <c r="K13">
-        <v>1.050241018956851</v>
+        <v>1.023851488616671</v>
       </c>
       <c r="L13">
-        <v>1.048693235099333</v>
+        <v>1.023520535778347</v>
       </c>
       <c r="M13">
-        <v>1.059225640833346</v>
+        <v>1.031174779723246</v>
       </c>
       <c r="N13">
-        <v>1.018177820202922</v>
+        <v>1.010673998561075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036373536495551</v>
+        <v>0.9915899798534459</v>
       </c>
       <c r="D14">
-        <v>1.046819497702996</v>
+        <v>1.009620273136724</v>
       </c>
       <c r="E14">
-        <v>1.04526028308192</v>
+        <v>1.009252846758142</v>
       </c>
       <c r="F14">
-        <v>1.055843987826327</v>
+        <v>1.017112208129778</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036008713573469</v>
+        <v>1.04400684211671</v>
       </c>
       <c r="J14">
-        <v>1.042939060655943</v>
+        <v>1.021353020326915</v>
       </c>
       <c r="K14">
-        <v>1.050350626397872</v>
+        <v>1.024379751347297</v>
       </c>
       <c r="L14">
-        <v>1.048797076383671</v>
+        <v>1.024019095181546</v>
       </c>
       <c r="M14">
-        <v>1.059342693268949</v>
+        <v>1.031735026525779</v>
       </c>
       <c r="N14">
-        <v>1.018209072093628</v>
+        <v>1.010829513991375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03646831367684</v>
+        <v>0.9920821941989869</v>
       </c>
       <c r="D15">
-        <v>1.046906620512647</v>
+        <v>1.010040067657778</v>
       </c>
       <c r="E15">
-        <v>1.045343874642484</v>
+        <v>1.009654122665711</v>
       </c>
       <c r="F15">
-        <v>1.055935521568047</v>
+        <v>1.017550923573044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036021189884549</v>
+        <v>1.044109695022672</v>
       </c>
       <c r="J15">
-        <v>1.042996357300326</v>
+        <v>1.021635005970447</v>
       </c>
       <c r="K15">
-        <v>1.050418166685693</v>
+        <v>1.024704204915707</v>
       </c>
       <c r="L15">
-        <v>1.048861064263768</v>
+        <v>1.024325315201866</v>
       </c>
       <c r="M15">
-        <v>1.059414822912928</v>
+        <v>1.032079142529041</v>
       </c>
       <c r="N15">
-        <v>1.018228326474947</v>
+        <v>1.010925011568784</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037020212008303</v>
+        <v>0.9949231034321504</v>
       </c>
       <c r="D16">
-        <v>1.047414072611952</v>
+        <v>1.012465497198001</v>
       </c>
       <c r="E16">
-        <v>1.045830781109681</v>
+        <v>1.011972903418358</v>
       </c>
       <c r="F16">
-        <v>1.056468678473758</v>
+        <v>1.020085778749896</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036093341026213</v>
+        <v>1.044699698141817</v>
       </c>
       <c r="J16">
-        <v>1.043329858848325</v>
+        <v>1.023262172587911</v>
       </c>
       <c r="K16">
-        <v>1.050811394156461</v>
+        <v>1.026577244877908</v>
       </c>
       <c r="L16">
-        <v>1.049233619987896</v>
+        <v>1.026093243799232</v>
       </c>
       <c r="M16">
-        <v>1.059834796682663</v>
+        <v>1.034065965737467</v>
       </c>
       <c r="N16">
-        <v>1.018340380584194</v>
+        <v>1.011476027865285</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037366625904559</v>
+        <v>0.9966844745174367</v>
       </c>
       <c r="D17">
-        <v>1.047732699237044</v>
+        <v>1.013971426174747</v>
       </c>
       <c r="E17">
-        <v>1.046136526853342</v>
+        <v>1.013412913601222</v>
       </c>
       <c r="F17">
-        <v>1.056803456530314</v>
+        <v>1.021659743211697</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036138188267414</v>
+        <v>1.045062272748695</v>
       </c>
       <c r="J17">
-        <v>1.043539063608257</v>
+        <v>1.024270662429426</v>
       </c>
       <c r="K17">
-        <v>1.051058154398705</v>
+        <v>1.0277388414377</v>
       </c>
       <c r="L17">
-        <v>1.049467417663988</v>
+        <v>1.027189783186043</v>
       </c>
       <c r="M17">
-        <v>1.060098364260496</v>
+        <v>1.035298365717348</v>
       </c>
       <c r="N17">
-        <v>1.018410655821418</v>
+        <v>1.011817498807002</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037568763032641</v>
+        <v>0.9977045910186368</v>
       </c>
       <c r="D18">
-        <v>1.047918661815987</v>
+        <v>1.014844360390522</v>
       </c>
       <c r="E18">
-        <v>1.04631497870601</v>
+        <v>1.014247742624129</v>
       </c>
       <c r="F18">
-        <v>1.056998849847512</v>
+        <v>1.022572149089967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036164198494964</v>
+        <v>1.045271083587267</v>
       </c>
       <c r="J18">
-        <v>1.043661091697795</v>
+        <v>1.024854597495924</v>
       </c>
       <c r="K18">
-        <v>1.051202120693177</v>
+        <v>1.028411687583983</v>
       </c>
       <c r="L18">
-        <v>1.049603824671221</v>
+        <v>1.027824991399809</v>
       </c>
       <c r="M18">
-        <v>1.060252144798262</v>
+        <v>1.036012309613834</v>
       </c>
       <c r="N18">
-        <v>1.018451641215825</v>
+        <v>1.012015201770603</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037637700053655</v>
+        <v>0.9980512095755468</v>
       </c>
       <c r="D19">
-        <v>1.047982089371515</v>
+        <v>1.015141096188152</v>
       </c>
       <c r="E19">
-        <v>1.046375845718065</v>
+        <v>1.014531543098058</v>
       </c>
       <c r="F19">
-        <v>1.057065494714901</v>
+        <v>1.022882308206669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036173042119041</v>
+        <v>1.045341832734684</v>
       </c>
       <c r="J19">
-        <v>1.04370270050696</v>
+        <v>1.025052983464335</v>
       </c>
       <c r="K19">
-        <v>1.051251215408417</v>
+        <v>1.028640324235746</v>
       </c>
       <c r="L19">
-        <v>1.049650342130864</v>
+        <v>1.028040846221258</v>
       </c>
       <c r="M19">
-        <v>1.060304587746911</v>
+        <v>1.036254925928201</v>
       </c>
       <c r="N19">
-        <v>1.01846561531994</v>
+        <v>1.012082366634113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037329450710885</v>
+        <v>0.9964962511930627</v>
       </c>
       <c r="D20">
-        <v>1.047698501908325</v>
+        <v>1.01381042069782</v>
       </c>
       <c r="E20">
-        <v>1.04610371126552</v>
+        <v>1.013258944799332</v>
       </c>
       <c r="F20">
-        <v>1.056767525283225</v>
+        <v>1.021491460250625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036133391929154</v>
+        <v>1.045023649199046</v>
       </c>
       <c r="J20">
-        <v>1.04351661765042</v>
+        <v>1.024162907830914</v>
       </c>
       <c r="K20">
-        <v>1.051031675706453</v>
+        <v>1.02761470088641</v>
       </c>
       <c r="L20">
-        <v>1.049442329571628</v>
+        <v>1.027072590556152</v>
       </c>
       <c r="M20">
-        <v>1.060070081181412</v>
+        <v>1.035166649490464</v>
       </c>
       <c r="N20">
-        <v>1.018403116463398</v>
+        <v>1.011781015059536</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.036328243122932</v>
+        <v>0.9913543001119846</v>
       </c>
       <c r="D21">
-        <v>1.046777864533449</v>
+        <v>1.009419314335538</v>
       </c>
       <c r="E21">
-        <v>1.045220337777147</v>
+        <v>1.009060759170763</v>
       </c>
       <c r="F21">
-        <v>1.055800247045671</v>
+        <v>1.016902193643285</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036002742407627</v>
+        <v>1.043957530490502</v>
       </c>
       <c r="J21">
-        <v>1.042911676451011</v>
+        <v>1.021217995261574</v>
       </c>
       <c r="K21">
-        <v>1.050318348167919</v>
+        <v>1.024224405608724</v>
       </c>
       <c r="L21">
-        <v>1.048766496078307</v>
+        <v>1.023872482197137</v>
       </c>
       <c r="M21">
-        <v>1.05930822220488</v>
+        <v>1.031570271470482</v>
       </c>
       <c r="N21">
-        <v>1.018199869385713</v>
+        <v>1.010783785545476</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03569947300717</v>
+        <v>0.9880519335545483</v>
       </c>
       <c r="D22">
-        <v>1.04620005426831</v>
+        <v>1.006606529451939</v>
       </c>
       <c r="E22">
-        <v>1.044665978975241</v>
+        <v>1.006372563193073</v>
       </c>
       <c r="F22">
-        <v>1.05519320135266</v>
+        <v>1.013962784937697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0359192650495</v>
+        <v>1.043262333672398</v>
       </c>
       <c r="J22">
-        <v>1.042531357114179</v>
+        <v>1.01932564663702</v>
       </c>
       <c r="K22">
-        <v>1.049870178240517</v>
+        <v>1.022048236049385</v>
       </c>
       <c r="L22">
-        <v>1.048341913800557</v>
+        <v>1.02181882666121</v>
       </c>
       <c r="M22">
-        <v>1.058829636757351</v>
+        <v>1.029262619892288</v>
       </c>
       <c r="N22">
-        <v>1.018072038452795</v>
+        <v>1.01014286667576</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036032726359479</v>
+        <v>0.9898093618264743</v>
       </c>
       <c r="D23">
-        <v>1.046506264092709</v>
+        <v>1.008102703931411</v>
       </c>
       <c r="E23">
-        <v>1.044959754638369</v>
+        <v>1.00780236903027</v>
       </c>
       <c r="F23">
-        <v>1.055514900918938</v>
+        <v>1.015526283785765</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035963644108477</v>
+        <v>1.043633270106337</v>
       </c>
       <c r="J23">
-        <v>1.042732968208153</v>
+        <v>1.020332782383947</v>
       </c>
       <c r="K23">
-        <v>1.05010773007374</v>
+        <v>1.023206202343755</v>
       </c>
       <c r="L23">
-        <v>1.048566960098686</v>
+        <v>1.022911559916625</v>
       </c>
       <c r="M23">
-        <v>1.059083303096414</v>
+        <v>1.03049047338338</v>
       </c>
       <c r="N23">
-        <v>1.018139807816948</v>
+        <v>1.010483982961004</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037346248334424</v>
+        <v>0.9965813236099232</v>
       </c>
       <c r="D24">
-        <v>1.047713953860052</v>
+        <v>1.013883188951399</v>
       </c>
       <c r="E24">
-        <v>1.046118538860369</v>
+        <v>1.01332853242092</v>
       </c>
       <c r="F24">
-        <v>1.056783760687504</v>
+        <v>1.021567517540828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036135559646589</v>
+        <v>1.045041109769951</v>
       </c>
       <c r="J24">
-        <v>1.043526760005038</v>
+        <v>1.02421161076312</v>
       </c>
       <c r="K24">
-        <v>1.051043640179069</v>
+        <v>1.027670809138821</v>
       </c>
       <c r="L24">
-        <v>1.049453665687191</v>
+        <v>1.02712555838922</v>
       </c>
       <c r="M24">
-        <v>1.060082860945385</v>
+        <v>1.035226181483746</v>
       </c>
       <c r="N24">
-        <v>1.01840652319015</v>
+        <v>1.011797505034365</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038873641050199</v>
+        <v>1.004156707079031</v>
       </c>
       <c r="D25">
-        <v>1.049119839155149</v>
+        <v>1.02037863174357</v>
       </c>
       <c r="E25">
-        <v>1.047467769095145</v>
+        <v>1.019542265014477</v>
       </c>
       <c r="F25">
-        <v>1.058261017730661</v>
+        <v>1.028357271010994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036329234040062</v>
+        <v>1.046570333723802</v>
       </c>
       <c r="J25">
-        <v>1.04444800437293</v>
+        <v>1.028544986670907</v>
       </c>
       <c r="K25">
-        <v>1.052131088051812</v>
+        <v>1.032668622920583</v>
       </c>
       <c r="L25">
-        <v>1.050484075786354</v>
+        <v>1.031844602064774</v>
       </c>
       <c r="M25">
-        <v>1.061244592098414</v>
+        <v>1.040530766562637</v>
       </c>
       <c r="N25">
-        <v>1.018715835137052</v>
+        <v>1.013264352780327</v>
       </c>
     </row>
   </sheetData>
